--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/RAUL REQUENES.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/RAUL REQUENES.xlsx
@@ -26,9 +26,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>NR Finance Mexico</x:t>
+  </x:si>
+  <x:si>
     <x:t>CSYSO</x:t>
   </x:si>
   <x:si>
+    <x:t>Certificacion de usuarios 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reporte de usuarios</x:t>
+  </x:si>
+  <x:si>
     <x:t>BASSOL MANZUR MARIA ROBER</x:t>
   </x:si>
   <x:si>
@@ -267,6 +276,9 @@
   </x:si>
   <x:si>
     <x:t>04/03/2024 08:50:43 a. m.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISION ENGINE</x:t>
   </x:si>
   <x:si>
     <x:t>DECISIONENG</x:t>
@@ -309,10 +321,18 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -326,7 +346,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -344,14 +364,45 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -655,121 +706,151 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="6.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="D2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="E5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="H8" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -791,74 +872,103 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B6" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="A7" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="E7" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -880,51 +990,80 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -946,51 +1085,80 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="7.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.853482" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="F6" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1012,85 +1180,113 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4.853482" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="31.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="D2" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
-      <x:c r="A7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="A7" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="E7" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1112,90 +1308,117 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="D2" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="B6" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="E7" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A8" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A9" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1217,45 +1440,76 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.853482" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:7">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="D2" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s"/>
+      <x:c r="G5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="E6" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s"/>
+      <x:c r="G6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1277,45 +1531,73 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="4.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="25.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="D2" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A5" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="A6" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1337,57 +1619,86 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="23.282054" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="B5" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="F6" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G6" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1409,109 +1720,138 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="31.853482" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.567768" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:8">
-      <x:c r="A6" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="B6" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="C7" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="E7" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="F8" s="2" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:8">
-      <x:c r="A7" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:8">
-      <x:c r="A8" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G8" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1533,31 +1873,61 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.139196" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="15.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="D2" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="B5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/RAUL REQUENES.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/RAUL REQUENES.xlsx
@@ -14,9 +14,8 @@
     <x:sheet name="IAPI" sheetId="7" r:id="rId7"/>
     <x:sheet name="PROCOTIZA" sheetId="8" r:id="rId8"/>
     <x:sheet name="PRODESK" sheetId="9" r:id="rId9"/>
-    <x:sheet name="INBROKER" sheetId="10" r:id="rId10"/>
-    <x:sheet name="DECISION ENGINE" sheetId="11" r:id="rId11"/>
-    <x:sheet name="SMARTIX" sheetId="12" r:id="rId12"/>
+    <x:sheet name="DECISION ENGINE" sheetId="10" r:id="rId10"/>
+    <x:sheet name="SMARTIX" sheetId="11" r:id="rId11"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CSYSO!$A$5:$L$5</x:definedName>
@@ -27,9 +26,8 @@
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">IAPI!$A$5:$I$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">PROCOTIZA!$A$5:$K$5</x:definedName>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">PRODESK!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">INBROKER!$A$5:$K$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">SMARTIX!$A$5:$J$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'DECISION ENGINE'!$A$5:$J$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">SMARTIX!$A$5:$J$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -84,45 +82,45 @@
     <x:t>Comentarios</x:t>
   </x:si>
   <x:si>
+    <x:t>REYES MENDOZA CARMINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRRMCR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ACTIVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CtrlUsuarios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reyesc2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAUL REQUENES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QUINTERO HERNANDEZ LILIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NRQHL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X845269</x:t>
+  </x:si>
+  <x:si>
     <x:t>BASSOL MANZUR MARIA ROBER</x:t>
   </x:si>
   <x:si>
     <x:t>NRBMMR</x:t>
   </x:si>
   <x:si>
-    <x:t>ACTIVO</x:t>
-  </x:si>
-  <x:si>
     <x:t>PldCI</x:t>
   </x:si>
   <x:si>
     <x:t>X667062</x:t>
   </x:si>
   <x:si>
-    <x:t>RAUL REQUENES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REYES MENDOZA CARMINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRRMCR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CtrlUsuarios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Reyesc2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QUINTERO HERNANDEZ LILIAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NRQHL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X845269</x:t>
-  </x:si>
-  <x:si>
     <x:t>CHAVEZ RIVERA ILSE CECILI</x:t>
   </x:si>
   <x:si>
@@ -162,13 +160,13 @@
     <x:t>REYESC2</x:t>
   </x:si>
   <x:si>
-    <x:t>USU1</x:t>
+    <x:t>Creacion de Usuarios</x:t>
   </x:si>
   <x:si>
     <x:t>ILSE CECILIA CHAVEZ RIVERA</x:t>
   </x:si>
   <x:si>
-    <x:t>PLDS</x:t>
+    <x:t>PLD Supervisor</x:t>
   </x:si>
   <x:si>
     <x:t>MARIA ROBERTA BASSOL MANZUR</x:t>
@@ -177,7 +175,7 @@
     <x:t>Liliana  Quintero Hernandez</x:t>
   </x:si>
   <x:si>
-    <x:t>GENE | USU1</x:t>
+    <x:t>Generico | Creacion de Usuarios</x:t>
   </x:si>
   <x:si>
     <x:t>EKIPINTER</x:t>
@@ -189,133 +187,109 @@
     <x:t>ControlUsuarios</x:t>
   </x:si>
   <x:si>
-    <x:t>RAUL REQUENES GUTIERREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X111364</x:t>
+    <x:t>TEKFLEET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERNANDEZ QUINTERO LILIAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NFHQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Activo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Administrador</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NFRMC2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IAPI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LILIANA QUINTERO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Administración de Usuarios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PROCOTIZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fecha de Creacion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTODIO COMPLIANCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liliana Hernandez Quintero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODESK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CTRLUSUARIOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLDCI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISION ENGINE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DECISIONENG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liliana Quintero Hernández</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liliana.QuinteroHernandez@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inactivo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Studio User</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: STS (A): edba8795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ilse Chávez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ilse.chavezrivera@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: STS (A): edba0645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ricardo Martínez Camargo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ricardo.MartinezCamargo@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Módulos: STS (I): edba6357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMARTIX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Area</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requiere acceso (Si/No)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carmina.Reyes@nrfm.com.mx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CUSTODIO</x:t>
   </x:si>
   <x:si>
     <x:t>Compliance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RICARDO CAMARGO MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X292536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ricardo Larios López</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X768562</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TEKFLEET</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NFRMC2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Activo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Administrador</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERNANDEZ QUINTERO LILIAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NFHQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IAPI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LILIANA QUINTERO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Administración de Usuarios</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PROCOTIZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fecha de Creacion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTODIO COMPLIANCE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liliana Hernandez Quintero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODESK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CTRLUSUARIOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLDCI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INBROKER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Area</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fecha Ultimo Login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REYESCA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C CREACION Y MODIFIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>COMPLIANCE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECISION ENGINE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Departamento</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DECISIONENG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liliana Quintero Hernández</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inactivo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Studio User</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ilse Chávez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ricardo Martínez Camargo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMARTIX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requiere acceso (Si/No)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carmina.Reyes@nrfm.com.mx</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CUSTODIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Liliana.QuinteroHernandez@nrfm.com.mx</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -830,10 +804,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F6" s="4">
-        <x:v>45131</x:v>
-      </x:c>
-      <x:c r="G6" s="4">
-        <x:v>45351</x:v>
+        <x:v>44622</x:v>
+      </x:c>
+      <x:c r="G6" s="5">
+        <x:v>45322.463287037</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>19</x:v>
@@ -858,16 +832,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
+        <x:v>43378</x:v>
+      </x:c>
+      <x:c r="G7" s="5">
+        <x:v>45323.5545138889</x:v>
+      </x:c>
+      <x:c r="H7" s="3" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>44622</x:v>
-      </x:c>
-      <x:c r="G7" s="4">
-        <x:v>45349</x:v>
-      </x:c>
-      <x:c r="H7" s="3" t="s">
-        <x:v>24</x:v>
       </x:c>
       <x:c r="I7" s="3" t="s">
         <x:v>20</x:v>
@@ -880,22 +854,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F8" s="4">
-        <x:v>43378</x:v>
-      </x:c>
-      <x:c r="G8" s="4">
-        <x:v>45323</x:v>
+        <x:v>45131</x:v>
+      </x:c>
+      <x:c r="G8" s="5">
+        <x:v>45324.5650578704</x:v>
       </x:c>
       <x:c r="H8" s="3" t="s">
         <x:v>27</x:v>
@@ -920,13 +894,13 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>44904</x:v>
       </x:c>
-      <x:c r="G9" s="4">
-        <x:v>45351</x:v>
+      <x:c r="G9" s="5">
+        <x:v>45322.6802314815</x:v>
       </x:c>
       <x:c r="H9" s="3" t="s">
         <x:v>30</x:v>
@@ -948,162 +922,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:I8"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.424911" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.139196" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="14.853482" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:9">
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:9">
-      <x:c r="D2" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:9">
-      <x:c r="D4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:9">
-      <x:c r="A5" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E5" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F5" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:9">
-      <x:c r="A6" s="3" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F6" s="4">
-        <x:v>44896</x:v>
-      </x:c>
-      <x:c r="G6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H6" s="3"/>
-      <x:c r="I6" s="3"/>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="3" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F7" s="4">
-        <x:v>44896</x:v>
-      </x:c>
-      <x:c r="G7" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H7" s="3"/>
-      <x:c r="I7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="3" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="F8" s="4">
-        <x:v>44896</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H8" s="3"/>
-      <x:c r="I8" s="3"/>
-    </x:row>
-  </x:sheetData>
-  <x:autoFilter ref="A5:J5"/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +950,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1162,13 +980,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I5" s="2" t="s">
         <x:v>14</x:v>
@@ -1176,22 +994,22 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
@@ -1201,22 +1019,22 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>88</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>92</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
         <x:v>20</x:v>
@@ -1313,7 +1131,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
@@ -1322,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F6" s="5">
-        <x:v>45356.4896168171</x:v>
+        <x:v>45324.6517521991</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
@@ -1338,7 +1156,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
@@ -1446,7 +1264,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E6" s="4">
-        <x:v>44622</x:v>
+        <x:v>44595</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
         <x:v>20</x:v>
@@ -1468,7 +1286,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E7" s="4">
-        <x:v>44267</x:v>
+        <x:v>44533</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
         <x:v>20</x:v>
@@ -1484,7 +1302,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
         <x:v>43</x:v>
@@ -1506,13 +1324,13 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E9" s="4">
-        <x:v>43749</x:v>
+        <x:v>43779</x:v>
       </x:c>
       <x:c r="F9" s="3" t="s">
         <x:v>20</x:v>
@@ -1535,7 +1353,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G10"/>
+  <x:dimension ref="A1:G7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1601,7 +1419,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>49</x:v>
@@ -1617,76 +1435,19 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="3"/>
       <x:c r="G7" s="3"/>
-    </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="A8" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E8" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F8" s="3"/>
-      <x:c r="G8" s="3"/>
-    </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="A9" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E9" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F9" s="3"/>
-      <x:c r="G9" s="3"/>
-    </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="A10" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E10" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F10" s="3"/>
-      <x:c r="G10" s="3"/>
     </x:row>
   </x:sheetData>
   <x:autoFilter ref="A5:H5"/>
@@ -1727,7 +1488,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9">
@@ -1771,21 +1532,23 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F6" s="3"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F6" s="4">
+        <x:v>45049</x:v>
+      </x:c>
       <x:c r="G6" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1794,21 +1557,23 @@
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>61</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F7" s="3"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
+        <x:v>45035</x:v>
+      </x:c>
       <x:c r="G7" s="3" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1853,7 +1618,7 @@
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="D2" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -1894,19 +1659,19 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
         <x:v>20</x:v>
@@ -1916,7 +1681,7 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
         <x:v>48</x:v>
@@ -1925,10 +1690,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F7" s="3" t="s">
         <x:v>20</x:v>
@@ -1976,7 +1741,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2006,7 +1771,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>32</x:v>
@@ -2023,25 +1788,25 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45079</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45355</x:v>
+        <x:v>45335</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -2051,19 +1816,19 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>69</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>68</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>45079</x:v>
@@ -2117,7 +1882,7 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="D2" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10">
@@ -2147,7 +1912,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
         <x:v>32</x:v>
@@ -2164,7 +1929,7 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
         <x:v>48</x:v>
@@ -2173,16 +1938,16 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F6" s="4">
         <x:v>45106</x:v>
       </x:c>
       <x:c r="G6" s="4">
-        <x:v>45355</x:v>
+        <x:v>45335</x:v>
       </x:c>
       <x:c r="H6" s="3" t="s">
         <x:v>20</x:v>
@@ -2192,25 +1957,25 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
         <x:v>44</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F7" s="4">
         <x:v>45159</x:v>
       </x:c>
       <x:c r="G7" s="4">
-        <x:v>45341</x:v>
+        <x:v>45321</x:v>
       </x:c>
       <x:c r="H7" s="3" t="s">
         <x:v>20</x:v>
@@ -2220,7 +1985,7 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
         <x:v>42</x:v>
@@ -2229,10 +1994,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F8" s="4">
         <x:v>45159</x:v>
@@ -2248,19 +2013,19 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="3" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E9" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F9" s="4">
         <x:v>45106</x:v>
@@ -2289,45 +2054,44 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J6"/>
+  <x:dimension ref="A1:I8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.139196" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="25.424911" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.139196" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="25.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="39.282054" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.996339" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.282054" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="15.567768" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
-    <x:col min="10" max="10" width="14.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.139196" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="19.282054" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="15.567768" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="18.567768" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="25.853482" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
+    <x:row r="1" spans="1:9">
       <x:c r="D1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:9">
       <x:c r="D2" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
       <x:c r="D3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:9">
       <x:c r="D4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:10">
+    <x:row r="5" spans="1:9">
       <x:c r="A5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -2344,51 +2108,101 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9">
+      <x:c r="A6" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F6" s="4">
+        <x:v>44896</x:v>
+      </x:c>
+      <x:c r="G6" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H6" s="3"/>
+      <x:c r="I6" s="3" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F7" s="4">
+        <x:v>44896</x:v>
+      </x:c>
+      <x:c r="G7" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H7" s="3"/>
+      <x:c r="I7" s="3" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="G5" s="2" t="s">
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="H5" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="J5" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="3" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
+      <x:c r="C8" s="3" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s">
+      <x:c r="D8" s="3" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F8" s="4">
+        <x:v>44896</x:v>
+      </x:c>
+      <x:c r="G8" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H8" s="3"/>
+      <x:c r="I8" s="3" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="F6" s="3" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G6" s="5">
-        <x:v>45355.368556169</x:v>
-      </x:c>
-      <x:c r="H6" s="3" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I6" s="3"/>
-      <x:c r="J6" s="3"/>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A5:K5"/>
+  <x:autoFilter ref="A5:J5"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
